--- a/data.xlsx
+++ b/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghazalziadlou/Test_video/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6244C7-49ED-C447-AEE0-122D0A376862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDCAD0B-DDB2-104F-A517-D547405100BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="6620" windowWidth="28040" windowHeight="17180" activeTab="1" xr2:uid="{76A68911-D8FE-614E-BD77-F22751C22638}"/>
+    <workbookView xWindow="10360" yWindow="3180" windowWidth="28040" windowHeight="17180" xr2:uid="{76A68911-D8FE-614E-BD77-F22751C22638}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
     <sheet name="Facilities" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>i</t>
   </si>
@@ -82,16 +82,397 @@
   </si>
   <si>
     <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>C45</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>C58</t>
+  </si>
+  <si>
+    <t>C59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71566B7E-C587-6541-9229-8C5D322EC2BD}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,13 +861,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>40.71</v>
+        <f ca="1">RANDBETWEEN(20000,40000)/1000</f>
+        <v>27.853000000000002</v>
       </c>
       <c r="C2">
-        <v>-74</v>
+        <f ca="1">RANDBETWEEN(-120000,-80000)/1000</f>
+        <v>-88.111999999999995</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <f ca="1">RANDBETWEEN(200,500)</f>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -494,13 +878,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>34.049999999999997</v>
+        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(20000,40000)/1000</f>
+        <v>37.805</v>
       </c>
       <c r="C3">
-        <v>-118.24</v>
+        <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(-120000,-80000)/1000</f>
+        <v>-116.551</v>
       </c>
       <c r="D3">
-        <v>270</v>
+        <f t="shared" ref="D3:D66" ca="1" si="2">RANDBETWEEN(200,500)</f>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -508,13 +895,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>41.88</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34.203000000000003</v>
       </c>
       <c r="C4">
-        <v>-87.63</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-112.833</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -522,13 +912,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>29.76</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.754999999999999</v>
       </c>
       <c r="C5">
-        <v>-95.37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-92.828999999999994</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -536,26 +929,948 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>33.75</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21.841999999999999</v>
       </c>
       <c r="C6">
-        <v>-84.39</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-87.893000000000001</v>
       </c>
       <c r="D6">
-        <v>180</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>33.076000000000001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-103.19799999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.26</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-115.53400000000001</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.193999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>-98.882000000000005</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.803000000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-91.423000000000002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.982999999999997</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>-108.95699999999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.53</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-113.075</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.07</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>-84.867999999999995</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.286999999999999</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>-100.82899999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.489000000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102.867</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.880000000000003</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>-93.992999999999995</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.606999999999999</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-111.999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.668999999999997</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-97.915000000000006</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.106000000000002</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-113.194</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.337</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-116.40300000000001</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.748999999999999</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95.421999999999997</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.057000000000002</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-91.727999999999994</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.062000000000001</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-101.372</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.088999999999999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-89.605000000000004</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.267000000000003</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-80.44</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.861999999999998</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102.289</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.123000000000001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-113.09</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.912999999999997</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-117.15900000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.75</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94.048000000000002</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.482999999999997</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-99.772000000000006</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.856000000000002</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-113.669</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.544</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>-86.301000000000002</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.568000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95.379000000000005</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>33.792000000000002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-98.266000000000005</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.526</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>-115.917</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.813000000000002</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96.432000000000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94.6</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.696999999999999</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>-112.21299999999999</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.427</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>-83.911000000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.954000000000001</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94.704999999999998</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.613999999999997</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>-116.381</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.884999999999998</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102.34099999999999</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.315999999999999</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-113.25700000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.32</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="1"/>
+        <v>-101.73399999999999</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.724</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="1"/>
+        <v>-108.276</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.731999999999999</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="1"/>
+        <v>-112.468</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.55</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="1"/>
+        <v>-109.711</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.702999999999999</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="1"/>
+        <v>-89.673000000000002</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.753</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="1"/>
+        <v>-92.754999999999995</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.93</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="1"/>
+        <v>-85.108000000000004</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.706</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="1"/>
+        <v>-107.295</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.591999999999999</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="1"/>
+        <v>-100.58199999999999</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.004000000000001</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="1"/>
+        <v>-116.887</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.995999999999999</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="1"/>
+        <v>-83.097999999999999</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.796999999999997</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="1"/>
+        <v>-108.72799999999999</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.375</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="1"/>
+        <v>-108.045</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.643999999999998</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
+        <v>-91.352000000000004</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>33.533999999999999</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="1"/>
+        <v>-116.029</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.858000000000001</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="1"/>
+        <v>-109.96599999999999</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.136000000000003</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="1"/>
+        <v>-101.39100000000001</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFBCB8A-D34F-DC42-96AA-349954587535}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,16 +1897,20 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>37.770000000000003</v>
+        <f ca="1">RANDBETWEEN(20000,40000)/1000</f>
+        <v>21.105</v>
       </c>
       <c r="C2">
-        <v>-122.42</v>
+        <f ca="1">RANDBETWEEN(-120000,-80000)/1000</f>
+        <v>-99.320999999999998</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <f ca="1">RANDBETWEEN(200,500)</f>
+        <v>463</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <f ca="1">RANDBETWEEN(800,1000)</f>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -599,16 +1918,20 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>47.61</v>
+        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(20000,40000)/1000</f>
+        <v>31.170999999999999</v>
       </c>
       <c r="C3">
-        <v>-123.33</v>
+        <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(-120000,-80000)/1000</f>
+        <v>-107.42</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <f t="shared" ref="D3:D66" ca="1" si="2">RANDBETWEEN(200,500)</f>
+        <v>366</v>
       </c>
       <c r="E3">
-        <v>800</v>
+        <f t="shared" ref="E3:E66" ca="1" si="3">RANDBETWEEN(800,1000)</f>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -616,19 +1939,1515 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>25.76</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.388999999999999</v>
       </c>
       <c r="C4">
-        <v>-80.19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-111.154</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>377</v>
       </c>
       <c r="E4">
+        <f t="shared" ca="1" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.554000000000002</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-112.136</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="2"/>
+        <v>268</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="3"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>33.348999999999997</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-82.375</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>412</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="3"/>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.635000000000002</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-105.907</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="3"/>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.148</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-80.66</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="3"/>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.856999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>-82.759</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="3"/>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.187000000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-117.15900000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="3"/>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.478999999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94.272000000000006</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
+        <v>474</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="3"/>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.742999999999999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96.375</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>277</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="3"/>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.786000000000001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96.656000000000006</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>490</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="3"/>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.088000000000001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>-113.283</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="3"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.370999999999999</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102.57</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="3"/>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.027999999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>-111.402</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="3"/>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.178999999999998</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-100.874</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="3"/>
         <v>960</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.844999999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-111.925</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="3"/>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.916</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-87.83</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="3"/>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.317999999999998</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-106.973</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.413</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-116.593</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.817</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-80.298000000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>377</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.460999999999999</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-108.208</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.226999999999997</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-90.025999999999996</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.126000000000001</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-84.82</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.824999999999999</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-83.683999999999997</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.113</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-115.425</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>489</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="3"/>
+        <v>938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.059000000000001</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-118.20399999999999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="3"/>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.51</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-101.301</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>404</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="3"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.873999999999999</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-99.373999999999995</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>486</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="3"/>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.401</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-82.301000000000002</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="3"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.614000000000001</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>-80.355000000000004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="3"/>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.114000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>-88.117000000000004</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="3"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.673999999999999</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96.284999999999997</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="3"/>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.849</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>-114.518</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.015000000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>-85.494</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.68</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>-92.605999999999995</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.384999999999998</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>-101.776</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>358</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.686</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>-116.288</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.437999999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-113.73699999999999</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.439</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>-107.28100000000001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.78</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>-114.182</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.142000000000003</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-91.004999999999995</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>405</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.332999999999998</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="1"/>
+        <v>-81.126999999999995</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>391</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.058</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="1"/>
+        <v>-116.14700000000001</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>495</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.405999999999999</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="1"/>
+        <v>-83.593999999999994</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.832000000000001</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="1"/>
+        <v>-81.497</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.83</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="1"/>
+        <v>-100.985</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>372</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.923000000000002</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="1"/>
+        <v>-119.121</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.845999999999997</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="1"/>
+        <v>-97.686999999999998</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.15</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="1"/>
+        <v>-87.811000000000007</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="3"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.148</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="1"/>
+        <v>-84.165000000000006</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
+        <v>433</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="3"/>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.685000000000002</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="1"/>
+        <v>-109.589</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
+        <v>418</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="3"/>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.114000000000001</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="1"/>
+        <v>-88.561999999999998</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
+        <v>236</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="3"/>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.759</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="1"/>
+        <v>-113.56100000000001</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.253</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="1"/>
+        <v>-82.95</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="3"/>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.158999999999999</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
+        <v>-113.991</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="3"/>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.356999999999999</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="1"/>
+        <v>-86.730999999999995</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
+        <v>387</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="3"/>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.536999999999999</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="1"/>
+        <v>-92.606999999999999</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="3"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.584000000000003</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="1"/>
+        <v>-115.74299999999999</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
+        <v>389</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="3"/>
+        <v>868</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.994</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="1"/>
+        <v>-101.027</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="3"/>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.273</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="1"/>
+        <v>-93.477999999999994</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="3"/>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.093</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="1"/>
+        <v>-107.61499999999999</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="2"/>
+        <v>402</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="3"/>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.887</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102.45399999999999</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
+        <v>499</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="3"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.756999999999998</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="1"/>
+        <v>-104.905</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="3"/>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.815000000000001</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="1"/>
+        <v>-108.149</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>429</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="3"/>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B75" ca="1" si="4">RANDBETWEEN(20000,40000)/1000</f>
+        <v>32.164000000000001</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C75" ca="1" si="5">RANDBETWEEN(-120000,-80000)/1000</f>
+        <v>-87.915000000000006</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D75" ca="1" si="6">RANDBETWEEN(200,500)</f>
+        <v>246</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E75" ca="1" si="7">RANDBETWEEN(800,1000)</f>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="4"/>
+        <v>29.97</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="5"/>
+        <v>-96.808000000000007</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="6"/>
+        <v>397</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="7"/>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="4"/>
+        <v>36.003</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="5"/>
+        <v>-84.406999999999996</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="6"/>
+        <v>462</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="7"/>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="4"/>
+        <v>35.804000000000002</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="5"/>
+        <v>-106.18899999999999</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="6"/>
+        <v>363</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="7"/>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="4"/>
+        <v>32.131</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="5"/>
+        <v>-106.011</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="6"/>
+        <v>296</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="7"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.338999999999999</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>-85.64</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="6"/>
+        <v>354</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="7"/>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="4"/>
+        <v>27.341000000000001</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="5"/>
+        <v>-82.323999999999998</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="6"/>
+        <v>258</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="7"/>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="4"/>
+        <v>28.062999999999999</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="5"/>
+        <v>-97.231999999999999</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="7"/>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="4"/>
+        <v>31.346</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="5"/>
+        <v>-89.078999999999994</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="6"/>
+        <v>257</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="7"/>
+        <v>921</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>